--- a/lab5/lab5.xlsx
+++ b/lab5/lab5.xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>f, Гц</t>
   </si>
@@ -46,13 +44,31 @@
   <si>
     <t>20lg(k)</t>
   </si>
+  <si>
+    <t>e_c, мВ</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_avg = </t>
+  </si>
+  <si>
+    <t>Теория:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_max = </t>
+  </si>
+  <si>
+    <t>u_вых = e_c * k_avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,15 +99,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,9 +152,790 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.15553190017470947"/>
+          <c:y val="4.920175397237022E-2"/>
+          <c:w val="0.81294428439150423"/>
+          <c:h val="0.7655017524007105"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3000"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                    <a:alpha val="82000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3C65-4FCA-A4EE-FBBDD4FE87B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334418352"/>
+        <c:axId val="334419336"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C65-4FCA-A4EE-FBBDD4FE87B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>79.993020163076594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172.85205056217251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283.61161694181703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>421.78137904167659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598.54917184959413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.80319170370865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>850.27545907605895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>990.12339642409495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1157.9409212417381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1292.1949410958528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1415.2611259621244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1560.7029808040818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1683.7691656703537</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1851.5866904879967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008.2163803177971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2215.1913275928905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2410.9784398801407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2567.6081297099408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3C65-4FCA-A4EE-FBBDD4FE87B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334418352"/>
+        <c:axId val="334419336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334418352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, мВ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47437579197146446"/>
+              <c:y val="0.89719898785106955"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334419336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="334419336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, мВ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4285716963951436E-2"/>
+              <c:y val="0.35092460747795745"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334418352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.1293414190741318"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.81294428439150423"/>
+          <c:w val="0.81294428439150435"/>
           <c:h val="0.8134059440174769"/>
         </c:manualLayout>
       </c:layout>
@@ -499,6 +1302,15 @@
                   </a:rPr>
                   <a:t> lg(k)</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, дБ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -660,6 +1472,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1176,7 +2028,560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1211,19 +2616,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,10 +2881,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.43</v>
+      </c>
+      <c r="B2">
+        <v>90.1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2/A2</f>
+        <v>63.006993006993007</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <f>A2*$C$21</f>
+        <v>79.993020163076594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.09</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C19" si="0">B3/A3</f>
+        <v>64.724919093851142</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F19" si="1">A3*$C$21</f>
+        <v>172.85205056217251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.07</v>
+      </c>
+      <c r="B4">
+        <v>324</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>63.905325443786978</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>283.61161694181703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7.54</v>
+      </c>
+      <c r="B5">
+        <v>476</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>63.129973474801062</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>421.78137904167659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.7</v>
+      </c>
+      <c r="B6">
+        <v>675</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>63.084112149532714</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>598.54917184959413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13.1</v>
+      </c>
+      <c r="B7">
+        <v>799</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>60.992366412213741</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>732.80319170370865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15.2</v>
+      </c>
+      <c r="B8">
+        <v>913</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>60.065789473684212</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>850.27545907605895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17.7</v>
+      </c>
+      <c r="B9">
+        <v>1053</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>59.491525423728817</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>990.12339642409495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20.7</v>
+      </c>
+      <c r="B10">
+        <v>1190</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>57.487922705314013</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>1157.9409212417381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23.1</v>
+      </c>
+      <c r="B11">
+        <v>1310</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>56.709956709956707</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>1292.1949410958528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25.3</v>
+      </c>
+      <c r="B12">
+        <v>1390</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>54.940711462450594</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>1415.2611259621244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27.9</v>
+      </c>
+      <c r="B13">
+        <v>1490</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>53.405017921146957</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>1560.7029808040818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30.1</v>
+      </c>
+      <c r="B14">
+        <v>1580</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>52.491694352159463</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>1683.7691656703537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33.1</v>
+      </c>
+      <c r="B15">
+        <v>1690</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>51.057401812688816</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>1851.5866904879967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35.9</v>
+      </c>
+      <c r="B16">
+        <v>1750</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>48.746518105849582</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>2008.2163803177971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39.6</v>
+      </c>
+      <c r="B17">
+        <v>1830</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>46.212121212121211</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>2215.1913275928905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>43.1</v>
+      </c>
+      <c r="B18">
+        <v>1910</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>44.315545243619489</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>2410.9784398801407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45.9</v>
+      </c>
+      <c r="B19">
+        <v>1980</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>43.137254901960787</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>2567.6081297099408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <f>AVERAGE(C2:C19)</f>
+        <v>55.939174939214404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab5/lab5.xlsx
+++ b/lab5/lab5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>f, Гц</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>u_вых = e_c * k_avg</t>
+  </si>
+  <si>
+    <t>Типо теория</t>
+  </si>
+  <si>
+    <t>REAL VALUES HERE:</t>
   </si>
 </sst>
 </file>
@@ -933,10 +939,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1293414190741318"/>
+          <c:x val="0.1382169548531709"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.81294428439150435"/>
-          <c:h val="0.8134059440174769"/>
+          <c:w val="0.79152217544978087"/>
+          <c:h val="0.75751772046458277"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1057,25 +1063,25 @@
                   <c:v>29.869161019903771</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>30.116560677096725</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30.089417249888378</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.116560677096725</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.07581366114362</c:v>
+                  <c:v>29.841232090251978</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.897000433601878</c:v>
+                  <c:v>28.927636244448841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.714428529631604</c:v>
+                  <c:v>27.215653797465599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.352162111672662</c:v>
+                  <c:v>24.934894194476826</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.896503990194951</c:v>
+                  <c:v>23.197356941851336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,6 +1090,151 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-00EF-4F5D-A00D-882B81B79D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B51-4180-BB78-3E2A4C6F4D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1198,7 +1349,7 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2586,13 +2737,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3233,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,7 +3398,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3269,8 +3420,11 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -3285,8 +3439,11 @@
         <f>20*LOG(C2)</f>
         <v>-11.920440726612904</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*2</f>
         <v>32</v>
@@ -3302,8 +3459,11 @@
         <f t="shared" ref="D3:D16" si="1">20*LOG(C3)</f>
         <v>-1.3100309751286456</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="2">A3*2</f>
         <v>64</v>
@@ -3319,8 +3479,11 @@
         <f t="shared" si="1"/>
         <v>7.9065278613870191</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -3336,8 +3499,11 @@
         <f t="shared" si="1"/>
         <v>15.490339314570992</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -3353,8 +3519,11 @@
         <f t="shared" si="1"/>
         <v>21.510939227850617</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>512</v>
@@ -3370,8 +3539,11 @@
         <f t="shared" si="1"/>
         <v>26.340362020962228</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>1024</v>
@@ -3387,8 +3559,11 @@
         <f t="shared" si="1"/>
         <v>28.912084065471952</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2048</v>
@@ -3404,122 +3579,404 @@
         <f t="shared" si="1"/>
         <v>29.869161019903771</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="B10">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>31.95</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>30.089417249888378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.116560677096725</v>
+      </c>
+      <c r="P10">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10*2</f>
         <v>8192</v>
       </c>
       <c r="B11">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>32.049999999999997</v>
+        <v>31.95</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>30.116560677096725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.089417249888378</v>
+      </c>
+      <c r="P11">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="B12">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>31.9</v>
+        <v>31.05</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>30.07581366114362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29.841232090251978</v>
+      </c>
+      <c r="P12">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="B13">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>27.95</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>29.897000433601878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28.927636244448841</v>
+      </c>
+      <c r="P13">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="B14">
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>30.6</v>
+        <v>22.95</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>29.714428529631604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27.215653797465599</v>
+      </c>
+      <c r="P14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="B15">
-        <v>587</v>
+        <v>353</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>29.35</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>29.352162111672662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24.934894194476826</v>
+      </c>
+      <c r="P15">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200000</v>
       </c>
       <c r="B16">
-        <v>557</v>
+        <v>289</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>27.85</v>
+        <f>B16/$G$1</f>
+        <v>14.45</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
+        <v>23.197356941851336</v>
+      </c>
+      <c r="P16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>5.07</v>
+      </c>
+      <c r="C21">
+        <f>B21/$G$1</f>
+        <v>0.2535</v>
+      </c>
+      <c r="D21" s="2">
+        <f>20*LOG(C21)</f>
+        <v>-11.920440726612904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A21*2</f>
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>17.2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C35" si="3">B22/$G$1</f>
+        <v>0.86</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D35" si="4">20*LOG(C22)</f>
+        <v>-1.3100309751286456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:A34" si="5">A22*2</f>
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>49.7</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>2.4850000000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9065278613870191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>5.95</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>15.490339314570992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <v>238</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>11.9</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>21.510939227850617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="B26">
+        <v>415</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>20.75</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>26.340362020962228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="B27">
+        <v>558</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>27.9</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
+        <v>28.912084065471952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="B28">
+        <v>623</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>31.15</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
+        <v>29.869161019903771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>4096</v>
+      </c>
+      <c r="B29">
+        <v>639</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>31.95</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
+        <v>30.089417249888378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29*2</f>
+        <v>8192</v>
+      </c>
+      <c r="B30">
+        <v>641</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="4"/>
+        <v>30.116560677096725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="B31">
+        <v>638</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>31.9</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="4"/>
+        <v>30.07581366114362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="B32">
+        <v>625</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>31.25</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
+        <v>29.897000433601878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="B33">
+        <v>612</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>30.6</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
+        <v>29.714428529631604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+      <c r="B34">
+        <v>587</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>29.35</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
+        <v>29.352162111672662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>200000</v>
+      </c>
+      <c r="B35">
+        <v>557</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>27.85</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
         <v>28.896503990194951</v>
       </c>
     </row>

--- a/lab5/lab5.xlsx
+++ b/lab5/lab5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>f, Гц</t>
   </si>
@@ -63,10 +63,49 @@
     <t>u_вых = e_c * k_avg</t>
   </si>
   <si>
-    <t>Типо теория</t>
+    <t>REAL VALUES HERE:</t>
   </si>
   <si>
-    <t>REAL VALUES HERE:</t>
+    <t xml:space="preserve">fh21 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rн = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cк = </t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a = </t>
+  </si>
+  <si>
+    <t>кГц</t>
+  </si>
+  <si>
+    <t>пФ</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w^2 * a^2</t>
+  </si>
+  <si>
+    <t>L_в</t>
+  </si>
+  <si>
+    <t>L_н</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Ku0</t>
+  </si>
+  <si>
+    <t>20lg(Ku0)</t>
   </si>
 </sst>
 </file>
@@ -105,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -120,6 +159,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,25 +1103,25 @@
                   <c:v>29.869161019903771</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>30.089417249888378</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30.116560677096725</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.089417249888378</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.841232090251978</c:v>
+                  <c:v>30.07581366114362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.927636244448841</c:v>
+                  <c:v>29.897000433601878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.215653797465599</c:v>
+                  <c:v>29.714428529631604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.934894194476826</c:v>
+                  <c:v>29.352162111672662</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.197356941851336</c:v>
+                  <c:v>28.896503990194951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,13 +1134,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="5"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>theo</c:v>
+            <c:v>fake</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1175,66 +1215,68 @@
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$16</c:f>
+              <c:f>Sheet1!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-11.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10.532400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>18.005043000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>23.472300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.8</c:v>
+                  <c:v>26.9438</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>30.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.7</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.6</c:v>
+                  <c:v>30.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.1</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.9</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.4</c:v>
+                  <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B51-4180-BB78-3E2A4C6F4D55}"/>
+              <c16:uniqueId val="{00000004-241B-40AE-B1E3-B3785423A8E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1248,6 +1290,409 @@
         </c:dLbls>
         <c:axId val="334418352"/>
         <c:axId val="334419336"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>shit2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>131072</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>-12.755454639726551</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-6.735083088166661</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.71539650170726077</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.301552023818445</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11.30757700838841</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17.27036147191259</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>23.067102009852327</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28.292422428299776</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32.087609069020353</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33.952092266378365</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34.57716657983665</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>34.748579127245179</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34.792510640027245</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>34.803563307663417</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.805668355613662</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-241B-40AE-B1E3-B3785423A8E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Ln</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131072</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$6:$I$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>30.881360887005513</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-241B-40AE-B1E3-B3785423A8E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Lв</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>512</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$2:$J$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>-24.187843558078079</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-15.457973683822624</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-6.7281038095671679</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.001766064688288</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.731635938943745</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19.461505813199199</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-241B-40AE-B1E3-B3785423A8E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="334418352"/>
@@ -2736,16 +3181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3035,7 +3480,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,10 +3840,14 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,20 +3860,34 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3">
+      <c r="W1" s="3">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -3432,18 +3895,47 @@
         <v>5.07</v>
       </c>
       <c r="C2">
-        <f>B2/$G$1</f>
+        <f>B2/$W$1</f>
         <v>0.2535</v>
       </c>
       <c r="D2" s="2">
-        <f>20*LOG(C2)</f>
+        <f>20*LOG10(C2)</f>
         <v>-11.920440726612904</v>
       </c>
-      <c r="P2">
-        <v>-11.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>1/A2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2*$W$5*$W$5</f>
+        <v>57050.995983609879</v>
+      </c>
+      <c r="G2">
+        <f>$W$7-10*LOG10(1+F2)</f>
+        <v>-12.755454639726551</v>
+      </c>
+      <c r="H2">
+        <v>-10</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(35)</f>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J2">
+        <f>1.45*(I2-20*LOG10(E2*$W$5))</f>
+        <v>-24.187843558078079</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*2</f>
         <v>32</v>
@@ -3452,282 +3944,600 @@
         <v>17.2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C16" si="0">B3/$G$1</f>
+        <f>B3/$W$1</f>
         <v>0.86</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D16" si="1">20*LOG(C3)</f>
+        <f t="shared" ref="D3:D16" si="0">20*LOG10(C3)</f>
         <v>-1.3100309751286456</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="1">1/A3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3">
+        <f>E3*E3*$W$5*$W$5</f>
+        <v>14262.74899590247</v>
+      </c>
+      <c r="G3">
+        <f>$W$7-10*LOG10(1+F3)</f>
+        <v>-6.735083088166661</v>
+      </c>
+      <c r="H3">
+        <v>1.4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" si="2">20*LOG10(35)</f>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J3">
+        <f>1.45*(I3-20*LOG10(E3*$W$5))</f>
+        <v>-15.457973683822624</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="8">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A15" si="2">A3*2</f>
+        <f t="shared" ref="A4:A15" si="3">A3*2</f>
         <v>64</v>
       </c>
       <c r="B4">
         <v>49.7</v>
       </c>
       <c r="C4">
+        <f>B4/$W$1</f>
+        <v>2.4850000000000003</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.4850000000000003</v>
-      </c>
-      <c r="D4" s="2">
+        <v>7.9065278613870191</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>7.9065278613870191</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F4">
+        <f>E4*E4*$W$5*$W$5</f>
+        <v>3565.6872489756174</v>
+      </c>
+      <c r="G4">
+        <f>$W$7-10*LOG10(1+F4)</f>
+        <v>-0.71539650170726077</v>
+      </c>
+      <c r="H4">
+        <v>10.532400000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J4">
+        <f>1.45*(I4-20*LOG10(E4*$W$5))</f>
+        <v>-6.7281038095671679</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4">
+        <v>2000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B5">
         <v>119</v>
       </c>
       <c r="C5">
+        <f>B5/$W$1</f>
+        <v>5.95</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="D5" s="2">
+        <v>15.490339314570992</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>15.490339314570992</v>
-      </c>
-      <c r="P5">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F5">
+        <f>E5*E5*$W$5*$W$5</f>
+        <v>891.42181224390436</v>
+      </c>
+      <c r="G5">
+        <f>$W$7-10*LOG10(1+F5)</f>
+        <v>5.301552023818445</v>
+      </c>
+      <c r="H5">
+        <v>18.005043000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J5">
+        <f>1.45*(I5-20*LOG10(E5*$W$5))</f>
+        <v>2.001766064688288</v>
+      </c>
+      <c r="V5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <f>W3*W4/(2*3.14*W2)</f>
+        <v>3821.6560509554138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B6">
         <v>238</v>
       </c>
       <c r="C6">
+        <f>B6/$W$1</f>
+        <v>11.9</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>11.9</v>
-      </c>
-      <c r="D6" s="2">
+        <v>21.510939227850617</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>21.510939227850617</v>
-      </c>
-      <c r="P6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F6">
+        <f>E6*E6*$W$5*$W$5</f>
+        <v>222.85545306097609</v>
+      </c>
+      <c r="G6">
+        <f>$W$7-10*LOG10(1+F6)</f>
+        <v>11.30757700838841</v>
+      </c>
+      <c r="H6">
+        <v>23.472300000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J6">
+        <f>1.45*(I6-20*LOG10(E6*$W$5))</f>
+        <v>10.731635938943745</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512</v>
       </c>
       <c r="B7">
         <v>415</v>
       </c>
       <c r="C7">
+        <f>B7/$W$1</f>
+        <v>20.75</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>20.75</v>
-      </c>
-      <c r="D7" s="2">
+        <v>26.340362020962228</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>26.340362020962228</v>
-      </c>
-      <c r="P7">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F7">
+        <f>E7*E7*$W$5*$W$5</f>
+        <v>55.713863265244022</v>
+      </c>
+      <c r="G7">
+        <f>$W$7-10*LOG10(1+F7)</f>
+        <v>17.27036147191259</v>
+      </c>
+      <c r="H7">
+        <v>26.9438</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J7">
+        <f>1.45*(I7-20*LOG10(E7*$W$5))</f>
+        <v>19.461505813199199</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <f>20*LOG10(W6)</f>
+        <v>34.807253789884875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="B8">
         <v>558</v>
       </c>
       <c r="C8">
+        <f>B8/$W$1</f>
+        <v>27.9</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>27.9</v>
-      </c>
-      <c r="D8" s="2">
+        <v>28.912084065471952</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>28.912084065471952</v>
-      </c>
-      <c r="P8">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="F8">
+        <f>E8*E8*$W$5*$W$5</f>
+        <v>13.928465816311006</v>
+      </c>
+      <c r="G8">
+        <f>$W$7-10*LOG10(1+F8)</f>
+        <v>23.067102009852327</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J8">
+        <f>1.45*(I8-20*LOG10(E8*$W$5))</f>
+        <v>28.191375687454652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="B9">
         <v>623</v>
       </c>
       <c r="C9">
+        <f>B9/$W$1</f>
+        <v>31.15</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>31.15</v>
-      </c>
-      <c r="D9" s="2">
+        <v>29.869161019903771</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>29.869161019903771</v>
-      </c>
-      <c r="P9">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="F9">
+        <f>E9*E9*$W$5*$W$5</f>
+        <v>3.4821164540777514</v>
+      </c>
+      <c r="G9">
+        <f>$W$7-10*LOG10(1+F9)</f>
+        <v>28.292422428299776</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J9">
+        <f>1.45*(I9-20*LOG10(E9*$W$5))</f>
+        <v>36.921245561710109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="B10">
+        <v>639</v>
+      </c>
+      <c r="C10">
+        <f>B10/$W$1</f>
+        <v>31.95</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>30.089417249888378</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="F10">
+        <f>E10*E10*$W$5*$W$5</f>
+        <v>0.87052911351943785</v>
+      </c>
+      <c r="G10">
+        <f>$W$7-10*LOG10(1+F10)</f>
+        <v>32.087609069020353</v>
+      </c>
+      <c r="H10">
+        <v>30.2</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>4096</v>
-      </c>
-      <c r="B10">
-        <v>641</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>32.049999999999997</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>30.116560677096725</v>
-      </c>
-      <c r="P10">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J10">
+        <f>1.45*(I10-20*LOG10(E10*$W$5))</f>
+        <v>45.651115435965565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10*2</f>
         <v>8192</v>
       </c>
       <c r="B11">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C11">
+        <f>B11/$W$1</f>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>31.95</v>
-      </c>
-      <c r="D11" s="2">
+        <v>30.116560677096725</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>30.089417249888378</v>
-      </c>
-      <c r="P11">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="F11">
+        <f>E11*E11*$W$5*$W$5</f>
+        <v>0.21763227837985946</v>
+      </c>
+      <c r="G11">
+        <f>$W$7-10*LOG10(1+F11)</f>
+        <v>33.952092266378365</v>
+      </c>
+      <c r="H11">
+        <v>30.3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J11">
+        <f>1.45*(I11-20*LOG10(E11*$W$5))</f>
+        <v>54.380985310221014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="B12">
+        <v>638</v>
+      </c>
+      <c r="C12">
+        <f>B12/$W$1</f>
+        <v>31.9</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>30.07581366114362</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="F12">
+        <f>E12*E12*$W$5*$W$5</f>
+        <v>5.4408069594964865E-2</v>
+      </c>
+      <c r="G12">
+        <f>$W$7-10*LOG10(1+F12)</f>
+        <v>34.57716657983665</v>
+      </c>
+      <c r="H12">
+        <v>30.4</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="B12">
-        <v>621</v>
-      </c>
-      <c r="C12">
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J12">
+        <f>1.45*(I12-20*LOG10(E12*$W$5))</f>
+        <v>63.11085518447647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
+      <c r="B13">
+        <v>625</v>
+      </c>
+      <c r="C13">
+        <f>B13/$W$1</f>
+        <v>31.25</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>31.05</v>
-      </c>
-      <c r="D12" s="2">
+        <v>29.897000433601878</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>29.841232090251978</v>
-      </c>
-      <c r="P12">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="F13">
+        <f>E13*E13*$W$5*$W$5</f>
+        <v>1.3602017398741216E-2</v>
+      </c>
+      <c r="G13">
+        <f>$W$7-10*LOG10(1+F13)</f>
+        <v>34.748579127245179</v>
+      </c>
+      <c r="H13">
+        <v>30.5</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>32768</v>
-      </c>
-      <c r="B13">
-        <v>559</v>
-      </c>
-      <c r="C13">
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J13">
+        <f>1.45*(I13-20*LOG10(E13*$W$5))</f>
+        <v>71.84072505873192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>65536</v>
+      </c>
+      <c r="B14">
+        <v>612</v>
+      </c>
+      <c r="C14">
+        <f>B14/$W$1</f>
+        <v>30.6</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>27.95</v>
-      </c>
-      <c r="D13" s="2">
+        <v>29.714428529631604</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>28.927636244448841</v>
-      </c>
-      <c r="P13">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="F14">
+        <f>E14*E14*$W$5*$W$5</f>
+        <v>3.4005043496853041E-3</v>
+      </c>
+      <c r="G14">
+        <f>$W$7-10*LOG10(1+F14)</f>
+        <v>34.792510640027245</v>
+      </c>
+      <c r="H14">
+        <v>30.6</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>65536</v>
-      </c>
-      <c r="B14">
-        <v>459</v>
-      </c>
-      <c r="C14">
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J14">
+        <f>1.45*(I14-20*LOG10(E14*$W$5))</f>
+        <v>80.570594932987376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>131072</v>
+      </c>
+      <c r="B15">
+        <v>587</v>
+      </c>
+      <c r="C15">
+        <f>B15/$W$1</f>
+        <v>29.35</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>22.95</v>
-      </c>
-      <c r="D14" s="2">
+        <v>29.352162111672662</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>27.215653797465599</v>
-      </c>
-      <c r="P14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="F15">
+        <f>E15*E15*$W$5*$W$5</f>
+        <v>8.5012608742132602E-4</v>
+      </c>
+      <c r="G15">
+        <f>$W$7-10*LOG10(1+F15)</f>
+        <v>34.803563307663417</v>
+      </c>
+      <c r="H15">
+        <v>30.7</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>131072</v>
-      </c>
-      <c r="B15">
-        <v>353</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>24.934894194476826</v>
-      </c>
-      <c r="P15">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J15">
+        <f>1.45*(I15-20*LOG10(E15*$W$5))</f>
+        <v>89.300464807242832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200000</v>
       </c>
       <c r="B16">
-        <v>289</v>
+        <v>557</v>
       </c>
       <c r="C16">
-        <f>B16/$G$1</f>
-        <v>14.45</v>
+        <f>B16/$W$1</f>
+        <v>27.85</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>28.896503990194951</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>23.197356941851336</v>
-      </c>
-      <c r="P16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F16">
+        <f>E16*E16*$W$5*$W$5</f>
+        <v>3.6512637429510328E-4</v>
+      </c>
+      <c r="G16">
+        <f>$W$7-10*LOG10(1+F16)</f>
+        <v>34.805668355613662</v>
+      </c>
+      <c r="H16">
+        <v>30.8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>30.881360887005513</v>
+      </c>
+      <c r="J16">
+        <f>1.45*(I16-20*LOG10(E16*$W$5))</f>
+        <v>94.622546819155573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3735,15 +4545,29 @@
         <v>5.07</v>
       </c>
       <c r="C21">
-        <f>B21/$G$1</f>
+        <f>B21/$W$1</f>
         <v>0.2535</v>
       </c>
       <c r="D21" s="2">
         <f>20*LOG(C21)</f>
         <v>-11.920440726612904</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>5.07</v>
+      </c>
+      <c r="K21">
+        <f>J21/$W$1</f>
+        <v>0.2535</v>
+      </c>
+      <c r="L21" s="2">
+        <f>20*LOG(K21)</f>
+        <v>-11.920440726612904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A21*2</f>
         <v>32</v>
@@ -3752,134 +4576,254 @@
         <v>17.2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C35" si="3">B22/$G$1</f>
+        <f>B22/$W$1</f>
         <v>0.86</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ref="D22:D35" si="4">20*LOG(C22)</f>
         <v>-1.3100309751286456</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>I21*2</f>
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>17.2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K35" si="5">J22/$W$1</f>
+        <v>0.86</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L35" si="6">20*LOG(K22)</f>
+        <v>-1.3100309751286456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ref="A23:A34" si="5">A22*2</f>
+        <f t="shared" ref="A23:A34" si="7">A22*2</f>
         <v>64</v>
       </c>
       <c r="B23">
         <v>49.7</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f>B23/$W$1</f>
         <v>2.4850000000000003</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="4"/>
         <v>7.9065278613870191</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" ref="I23:I34" si="8">I22*2</f>
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>49.7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>2.4850000000000003</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="6"/>
+        <v>7.9065278613870191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="B24">
         <v>119</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f>B24/$W$1</f>
         <v>5.95</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="4"/>
         <v>15.490339314570992</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <v>119</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>5.95</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="6"/>
+        <v>15.490339314570992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="B25">
         <v>238</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f>B25/$W$1</f>
         <v>11.9</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="4"/>
         <v>21.510939227850617</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="J25">
+        <v>238</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>11.9</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="6"/>
+        <v>21.510939227850617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="B26">
         <v>415</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f>B26/$W$1</f>
         <v>20.75</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="4"/>
         <v>26.340362020962228</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="J26">
+        <v>415</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>20.75</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="6"/>
+        <v>26.340362020962228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="B27">
         <v>558</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f>B27/$W$1</f>
         <v>27.9</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="4"/>
         <v>28.912084065471952</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="J27">
+        <v>558</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>27.9</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="6"/>
+        <v>28.912084065471952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="B28">
         <v>623</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f>B28/$W$1</f>
         <v>31.15</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="4"/>
         <v>29.869161019903771</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>2048</v>
+      </c>
+      <c r="J28">
+        <v>623</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>31.15</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="6"/>
+        <v>29.869161019903771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
       <c r="B29">
         <v>639</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f>B29/$W$1</f>
         <v>31.95</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="4"/>
         <v>30.089417249888378</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="J29">
+        <v>641</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="6"/>
+        <v>30.116560677096725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A29*2</f>
         <v>8192</v>
@@ -3888,83 +4832,158 @@
         <v>641</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f>B30/$W$1</f>
         <v>32.049999999999997</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="4"/>
         <v>30.116560677096725</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>I29*2</f>
+        <v>8192</v>
+      </c>
+      <c r="J30">
+        <v>639</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>31.95</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="6"/>
+        <v>30.089417249888378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
       <c r="B31">
         <v>638</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f>B31/$W$1</f>
         <v>31.9</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="4"/>
         <v>30.07581366114362</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>16384</v>
+      </c>
+      <c r="J31">
+        <v>621</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>31.05</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="6"/>
+        <v>29.841232090251978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
       <c r="B32">
         <v>625</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f>B32/$W$1</f>
         <v>31.25</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="4"/>
         <v>29.897000433601878</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>32768</v>
+      </c>
+      <c r="J32">
+        <v>559</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>27.95</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="6"/>
+        <v>28.927636244448841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
       <c r="B33">
         <v>612</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f>B33/$W$1</f>
         <v>30.6</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="4"/>
         <v>29.714428529631604</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>65536</v>
+      </c>
+      <c r="J33">
+        <v>459</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>22.95</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="6"/>
+        <v>27.215653797465599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>131072</v>
       </c>
       <c r="B34">
         <v>587</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f>B34/$W$1</f>
         <v>29.35</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="4"/>
         <v>29.352162111672662</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>131072</v>
+      </c>
+      <c r="J34">
+        <v>353</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="6"/>
+        <v>24.934894194476826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200000</v>
       </c>
@@ -3972,12 +4991,26 @@
         <v>557</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f>B35/$W$1</f>
         <v>27.85</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="4"/>
         <v>28.896503990194951</v>
+      </c>
+      <c r="I35">
+        <v>200000</v>
+      </c>
+      <c r="J35">
+        <v>289</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>14.45</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="6"/>
+        <v>23.197356941851336</v>
       </c>
     </row>
   </sheetData>

--- a/lab5/lab5.xlsx
+++ b/lab5/lab5.xlsx
@@ -1134,22 +1134,22 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>fake</c:v>
+            <c:v>shit2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1220,54 +1220,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$16</c:f>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>34.806842083502488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4</c:v>
+                  <c:v>34.8056071984794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.532400000000001</c:v>
+                  <c:v>34.800671166701143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.005043000000001</c:v>
+                  <c:v>34.780982950155057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.472300000000001</c:v>
+                  <c:v>34.703110668837397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.9438</c:v>
+                  <c:v>34.404876065179515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>33.382374595463673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>30.73630547483673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.2</c:v>
+                  <c:v>26.226073357757048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.3</c:v>
+                  <c:v>20.682288757417886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.4</c:v>
+                  <c:v>14.789546360315573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.5</c:v>
+                  <c:v>8.8015077578649468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.6</c:v>
+                  <c:v>2.7890864609682424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.7</c:v>
+                  <c:v>-3.2294663893948226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.8</c:v>
+                  <c:v>-6.8994783823416981</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1276,7 +1276,109 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-241B-40AE-B1E3-B3785423A8E7}"/>
+              <c16:uniqueId val="{00000001-241B-40AE-B1E3-B3785423A8E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>f, Гц</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$21:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-11.920440726612904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3100309751286456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9065278613870191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.490339314570992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.510939227850617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.340362020962228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.912084065471952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.869161019903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.116560677096725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.089417249888378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.841232090251978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.927636244448841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.215653797465599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.934894194476826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.197356941851336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3066-4B6F-B64B-F4A388AC38BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1292,165 +1394,6 @@
         <c:axId val="334419336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>shit2</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2048</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4096</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>8192</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>16384</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>32768</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65536</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>131072</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$2:$G$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>-12.755454639726551</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-6.735083088166661</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-0.71539650170726077</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.301552023818445</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>11.30757700838841</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>17.27036147191259</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>23.067102009852327</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>28.292422428299776</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>32.087609069020353</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>33.952092266378365</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>34.57716657983665</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>34.748579127245179</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>34.792510640027245</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>34.803563307663417</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>34.805668355613662</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-241B-40AE-B1E3-B3785423A8E7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -1485,7 +1428,7 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$16</c15:sqref>
                         </c15:formulaRef>
@@ -1533,7 +1476,7 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$6:$I$16</c15:sqref>
                         </c15:formulaRef>
@@ -1619,7 +1562,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1652,7 +1595,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$7</c15:sqref>
@@ -1663,30 +1606,189 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>-24.187843558078079</c:v>
+                        <c:v>71.113122149142754</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-15.457973683822624</c:v>
+                        <c:v>65.092522235863115</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-6.7281038095671679</c:v>
+                        <c:v>59.071922322583497</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.001766064688288</c:v>
+                        <c:v>53.051322409303872</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>10.731635938943745</c:v>
+                        <c:v>47.030722496024254</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>19.461505813199199</c:v>
+                        <c:v>41.010122582744621</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-241B-40AE-B1E3-B3785423A8E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>fake</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>131072</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$2:$H$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.532400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18.005043000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23.472300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>26.9438</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>30.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30.3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>30.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>30.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>30.7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>30.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-241B-40AE-B1E3-B3785423A8E7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3832,7 +3934,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,10 +3979,10 @@
         <v>22</v>
       </c>
       <c r="K1" s="3"/>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="1">
         <v>20</v>
       </c>
       <c r="X1" t="s">
@@ -3895,7 +3997,7 @@
         <v>5.07</v>
       </c>
       <c r="C2">
-        <f>B2/$W$1</f>
+        <f t="shared" ref="C2:C16" si="0">B2/$W$1</f>
         <v>0.2535</v>
       </c>
       <c r="D2" s="2">
@@ -3903,16 +4005,16 @@
         <v>-11.920440726612904</v>
       </c>
       <c r="E2">
-        <f>1/A2</f>
-        <v>6.25E-2</v>
+        <f>A2/2/3.14</f>
+        <v>2.5477707006369426</v>
       </c>
       <c r="F2">
-        <f>E2*E2*$W$5*$W$5</f>
-        <v>57050.995983609879</v>
+        <f t="shared" ref="F2:F16" si="1">E2*E2*$W$5*$W$5</f>
+        <v>9.4803391435298014E-5</v>
       </c>
       <c r="G2">
-        <f>$W$7-10*LOG10(1+F2)</f>
-        <v>-12.755454639726551</v>
+        <f t="shared" ref="G2:G16" si="2">$W$7-10*LOG10(1+F2)</f>
+        <v>34.806842083502488</v>
       </c>
       <c r="H2">
         <v>-10</v>
@@ -3922,8 +4024,8 @@
         <v>30.881360887005513</v>
       </c>
       <c r="J2">
-        <f>1.45*(I2-20*LOG10(E2*$W$5))</f>
-        <v>-24.187843558078079</v>
+        <f>I2-20*LOG10(E2*$W$5)</f>
+        <v>71.113122149142754</v>
       </c>
       <c r="V2" t="s">
         <v>13</v>
@@ -3944,41 +4046,41 @@
         <v>17.2</v>
       </c>
       <c r="C3">
-        <f>B3/$W$1</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D16" si="0">20*LOG10(C3)</f>
+        <f t="shared" ref="D3:D16" si="3">20*LOG10(C3)</f>
         <v>-1.3100309751286456</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="1">1/A3</f>
-        <v>3.125E-2</v>
+        <f t="shared" ref="E3:E16" si="4">A3/2/3.14</f>
+        <v>5.0955414012738851</v>
       </c>
       <c r="F3">
-        <f>E3*E3*$W$5*$W$5</f>
-        <v>14262.74899590247</v>
+        <f t="shared" si="1"/>
+        <v>3.7921356574119206E-4</v>
       </c>
       <c r="G3">
-        <f>$W$7-10*LOG10(1+F3)</f>
-        <v>-6.735083088166661</v>
+        <f t="shared" si="2"/>
+        <v>34.8056071984794</v>
       </c>
       <c r="H3">
         <v>1.4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I16" si="2">20*LOG10(35)</f>
+        <f t="shared" ref="I3:I16" si="5">20*LOG10(35)</f>
         <v>30.881360887005513</v>
       </c>
       <c r="J3">
-        <f>1.45*(I3-20*LOG10(E3*$W$5))</f>
-        <v>-15.457973683822624</v>
+        <f t="shared" ref="J3:J16" si="6">I3-20*LOG10(E3*$W$5)</f>
+        <v>65.092522235863115</v>
       </c>
       <c r="V3" t="s">
         <v>15</v>
       </c>
       <c r="W3" s="8">
-        <v>6</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="X3" t="s">
         <v>19</v>
@@ -3986,42 +4088,42 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A15" si="3">A3*2</f>
+        <f t="shared" ref="A4:A15" si="7">A3*2</f>
         <v>64</v>
       </c>
       <c r="B4">
         <v>49.7</v>
       </c>
       <c r="C4">
-        <f>B4/$W$1</f>
+        <f t="shared" si="0"/>
         <v>2.4850000000000003</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.9065278613870191</v>
       </c>
       <c r="E4">
+        <f t="shared" si="4"/>
+        <v>10.19108280254777</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F4">
-        <f>E4*E4*$W$5*$W$5</f>
-        <v>3565.6872489756174</v>
+        <v>1.5168542629647682E-3</v>
       </c>
       <c r="G4">
-        <f>$W$7-10*LOG10(1+F4)</f>
-        <v>-0.71539650170726077</v>
+        <f t="shared" si="2"/>
+        <v>34.800671166701143</v>
       </c>
       <c r="H4">
         <v>10.532400000000001</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J4">
-        <f>1.45*(I4-20*LOG10(E4*$W$5))</f>
-        <v>-6.7281038095671679</v>
+        <f t="shared" si="6"/>
+        <v>59.071922322583497</v>
       </c>
       <c r="V4" t="s">
         <v>14</v>
@@ -4035,89 +4137,89 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="B5">
         <v>119</v>
       </c>
       <c r="C5">
-        <f>B5/$W$1</f>
+        <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.490339314570992</v>
       </c>
       <c r="E5">
+        <f t="shared" si="4"/>
+        <v>20.38216560509554</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="F5">
-        <f>E5*E5*$W$5*$W$5</f>
-        <v>891.42181224390436</v>
+        <v>6.0674170518590729E-3</v>
       </c>
       <c r="G5">
-        <f>$W$7-10*LOG10(1+F5)</f>
-        <v>5.301552023818445</v>
+        <f t="shared" si="2"/>
+        <v>34.780982950155057</v>
       </c>
       <c r="H5">
         <v>18.005043000000001</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J5">
-        <f>1.45*(I5-20*LOG10(E5*$W$5))</f>
-        <v>2.001766064688288</v>
+        <f t="shared" si="6"/>
+        <v>53.051322409303872</v>
       </c>
       <c r="V5" t="s">
         <v>17</v>
       </c>
       <c r="W5">
         <f>W3*W4/(2*3.14*W2)</f>
-        <v>3821.6560509554138</v>
+        <v>3.821656050955414E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="B6">
         <v>238</v>
       </c>
       <c r="C6">
-        <f>B6/$W$1</f>
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21.510939227850617</v>
       </c>
       <c r="E6">
+        <f t="shared" si="4"/>
+        <v>40.764331210191081</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F6">
-        <f>E6*E6*$W$5*$W$5</f>
-        <v>222.85545306097609</v>
+        <v>2.4269668207436292E-2</v>
       </c>
       <c r="G6">
-        <f>$W$7-10*LOG10(1+F6)</f>
-        <v>11.30757700838841</v>
+        <f t="shared" si="2"/>
+        <v>34.703110668837397</v>
       </c>
       <c r="H6">
         <v>23.472300000000001</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J6">
-        <f>1.45*(I6-20*LOG10(E6*$W$5))</f>
-        <v>10.731635938943745</v>
+        <f t="shared" si="6"/>
+        <v>47.030722496024254</v>
       </c>
       <c r="V6" t="s">
         <v>25</v>
@@ -4128,42 +4230,42 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="B7">
         <v>415</v>
       </c>
       <c r="C7">
-        <f>B7/$W$1</f>
+        <f t="shared" si="0"/>
         <v>20.75</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26.340362020962228</v>
       </c>
       <c r="E7">
+        <f t="shared" si="4"/>
+        <v>81.528662420382162</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="F7">
-        <f>E7*E7*$W$5*$W$5</f>
-        <v>55.713863265244022</v>
+        <v>9.7078672829745166E-2</v>
       </c>
       <c r="G7">
-        <f>$W$7-10*LOG10(1+F7)</f>
-        <v>17.27036147191259</v>
+        <f t="shared" si="2"/>
+        <v>34.404876065179515</v>
       </c>
       <c r="H7">
         <v>26.9438</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J7">
-        <f>1.45*(I7-20*LOG10(E7*$W$5))</f>
-        <v>19.461505813199199</v>
+        <f t="shared" si="6"/>
+        <v>41.010122582744621</v>
       </c>
       <c r="V7" t="s">
         <v>26</v>
@@ -4175,122 +4277,122 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="B8">
         <v>558</v>
       </c>
       <c r="C8">
-        <f>B8/$W$1</f>
+        <f t="shared" si="0"/>
         <v>27.9</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28.912084065471952</v>
       </c>
       <c r="E8">
+        <f t="shared" si="4"/>
+        <v>163.05732484076432</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="F8">
-        <f>E8*E8*$W$5*$W$5</f>
-        <v>13.928465816311006</v>
+        <v>0.38831469131898066</v>
       </c>
       <c r="G8">
-        <f>$W$7-10*LOG10(1+F8)</f>
-        <v>23.067102009852327</v>
+        <f t="shared" si="2"/>
+        <v>33.382374595463673</v>
       </c>
       <c r="H8">
         <v>29</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J8">
-        <f>1.45*(I8-20*LOG10(E8*$W$5))</f>
-        <v>28.191375687454652</v>
+        <f t="shared" si="6"/>
+        <v>34.989522669465003</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="B9">
         <v>623</v>
       </c>
       <c r="C9">
-        <f>B9/$W$1</f>
+        <f t="shared" si="0"/>
         <v>31.15</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29.869161019903771</v>
       </c>
       <c r="E9">
+        <f t="shared" si="4"/>
+        <v>326.11464968152865</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="F9">
-        <f>E9*E9*$W$5*$W$5</f>
-        <v>3.4821164540777514</v>
+        <v>1.5532587652759227</v>
       </c>
       <c r="G9">
-        <f>$W$7-10*LOG10(1+F9)</f>
-        <v>28.292422428299776</v>
+        <f t="shared" si="2"/>
+        <v>30.73630547483673</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J9">
-        <f>1.45*(I9-20*LOG10(E9*$W$5))</f>
-        <v>36.921245561710109</v>
+        <f t="shared" si="6"/>
+        <v>28.968922756185375</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
       <c r="B10">
         <v>639</v>
       </c>
       <c r="C10">
-        <f>B10/$W$1</f>
+        <f t="shared" si="0"/>
         <v>31.95</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.089417249888378</v>
       </c>
       <c r="E10">
+        <f t="shared" si="4"/>
+        <v>652.22929936305729</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="F10">
-        <f>E10*E10*$W$5*$W$5</f>
-        <v>0.87052911351943785</v>
+        <v>6.2130350611036906</v>
       </c>
       <c r="G10">
-        <f>$W$7-10*LOG10(1+F10)</f>
-        <v>32.087609069020353</v>
+        <f t="shared" si="2"/>
+        <v>26.226073357757048</v>
       </c>
       <c r="H10">
         <v>30.2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J10">
-        <f>1.45*(I10-20*LOG10(E10*$W$5))</f>
-        <v>45.651115435965565</v>
+        <f t="shared" si="6"/>
+        <v>22.948322842905753</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -4302,195 +4404,195 @@
         <v>641</v>
       </c>
       <c r="C11">
-        <f>B11/$W$1</f>
+        <f t="shared" si="0"/>
         <v>32.049999999999997</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.116560677096725</v>
       </c>
       <c r="E11">
+        <f t="shared" si="4"/>
+        <v>1304.4585987261146</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="F11">
-        <f>E11*E11*$W$5*$W$5</f>
-        <v>0.21763227837985946</v>
+        <v>24.852140244414763</v>
       </c>
       <c r="G11">
-        <f>$W$7-10*LOG10(1+F11)</f>
-        <v>33.952092266378365</v>
+        <f t="shared" si="2"/>
+        <v>20.682288757417886</v>
       </c>
       <c r="H11">
         <v>30.3</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J11">
-        <f>1.45*(I11-20*LOG10(E11*$W$5))</f>
-        <v>54.380985310221014</v>
+        <f t="shared" si="6"/>
+        <v>16.927722929626128</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
       <c r="B12">
         <v>638</v>
       </c>
       <c r="C12">
-        <f>B12/$W$1</f>
+        <f t="shared" si="0"/>
         <v>31.9</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.07581366114362</v>
       </c>
       <c r="E12">
+        <f t="shared" si="4"/>
+        <v>2608.9171974522292</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="F12">
-        <f>E12*E12*$W$5*$W$5</f>
-        <v>5.4408069594964865E-2</v>
+        <v>99.40856097765905</v>
       </c>
       <c r="G12">
-        <f>$W$7-10*LOG10(1+F12)</f>
-        <v>34.57716657983665</v>
+        <f t="shared" si="2"/>
+        <v>14.789546360315573</v>
       </c>
       <c r="H12">
         <v>30.4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J12">
-        <f>1.45*(I12-20*LOG10(E12*$W$5))</f>
-        <v>63.11085518447647</v>
+        <f t="shared" si="6"/>
+        <v>10.907123016346503</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
       <c r="B13">
         <v>625</v>
       </c>
       <c r="C13">
-        <f>B13/$W$1</f>
+        <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29.897000433601878</v>
       </c>
       <c r="E13">
+        <f t="shared" si="4"/>
+        <v>5217.8343949044583</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.0517578125E-5</v>
-      </c>
-      <c r="F13">
-        <f>E13*E13*$W$5*$W$5</f>
-        <v>1.3602017398741216E-2</v>
+        <v>397.6342439106362</v>
       </c>
       <c r="G13">
-        <f>$W$7-10*LOG10(1+F13)</f>
-        <v>34.748579127245179</v>
+        <f t="shared" si="2"/>
+        <v>8.8015077578649468</v>
       </c>
       <c r="H13">
         <v>30.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J13">
-        <f>1.45*(I13-20*LOG10(E13*$W$5))</f>
-        <v>71.84072505873192</v>
+        <f t="shared" si="6"/>
+        <v>4.8865231030668781</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
       <c r="B14">
         <v>612</v>
       </c>
       <c r="C14">
-        <f>B14/$W$1</f>
+        <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29.714428529631604</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>10435.668789808917</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="F14">
-        <f>E14*E14*$W$5*$W$5</f>
-        <v>3.4005043496853041E-3</v>
+        <v>1590.5369756425448</v>
       </c>
       <c r="G14">
-        <f>$W$7-10*LOG10(1+F14)</f>
-        <v>34.792510640027245</v>
+        <f t="shared" si="2"/>
+        <v>2.7890864609682424</v>
       </c>
       <c r="H14">
         <v>30.6</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J14">
-        <f>1.45*(I14-20*LOG10(E14*$W$5))</f>
-        <v>80.570594932987376</v>
+        <f t="shared" si="6"/>
+        <v>-1.134076810212747</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>131072</v>
       </c>
       <c r="B15">
         <v>587</v>
       </c>
       <c r="C15">
-        <f>B15/$W$1</f>
+        <f t="shared" si="0"/>
         <v>29.35</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29.352162111672662</v>
       </c>
       <c r="E15">
+        <f t="shared" si="4"/>
+        <v>20871.337579617833</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>7.62939453125E-6</v>
-      </c>
-      <c r="F15">
-        <f>E15*E15*$W$5*$W$5</f>
-        <v>8.5012608742132602E-4</v>
+        <v>6362.1479025701792</v>
       </c>
       <c r="G15">
-        <f>$W$7-10*LOG10(1+F15)</f>
-        <v>34.803563307663417</v>
+        <f t="shared" si="2"/>
+        <v>-3.2294663893948226</v>
       </c>
       <c r="H15">
         <v>30.7</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J15">
-        <f>1.45*(I15-20*LOG10(E15*$W$5))</f>
-        <v>89.300464807242832</v>
+        <f t="shared" si="6"/>
+        <v>-7.1546767234923649</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -4501,35 +4603,35 @@
         <v>557</v>
       </c>
       <c r="C16">
-        <f>B16/$W$1</f>
+        <f t="shared" si="0"/>
         <v>27.85</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28.896503990194951</v>
       </c>
       <c r="E16">
+        <f t="shared" si="4"/>
+        <v>31847.133757961783</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F16">
-        <f>E16*E16*$W$5*$W$5</f>
-        <v>3.6512637429510328E-4</v>
+        <v>14813.029911765316</v>
       </c>
       <c r="G16">
-        <f>$W$7-10*LOG10(1+F16)</f>
-        <v>34.805668355613662</v>
+        <f t="shared" si="2"/>
+        <v>-6.8994783823416981</v>
       </c>
       <c r="H16">
         <v>30.8</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.881360887005513</v>
       </c>
       <c r="J16">
-        <f>1.45*(I16-20*LOG10(E16*$W$5))</f>
-        <v>94.622546819155573</v>
+        <f t="shared" si="6"/>
+        <v>-10.825078111018385</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4545,7 +4647,7 @@
         <v>5.07</v>
       </c>
       <c r="C21">
-        <f>B21/$W$1</f>
+        <f t="shared" ref="C21:C35" si="8">B21/$W$1</f>
         <v>0.2535</v>
       </c>
       <c r="D21" s="2">
@@ -4576,11 +4678,11 @@
         <v>17.2</v>
       </c>
       <c r="C22">
-        <f>B22/$W$1</f>
+        <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:D35" si="4">20*LOG(C22)</f>
+        <f t="shared" ref="D22:D35" si="9">20*LOG(C22)</f>
         <v>-1.3100309751286456</v>
       </c>
       <c r="I22">
@@ -4591,235 +4693,235 @@
         <v>17.2</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K35" si="5">J22/$W$1</f>
+        <f t="shared" ref="K22:K35" si="10">J22/$W$1</f>
         <v>0.86</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ref="L22:L35" si="6">20*LOG(K22)</f>
+        <f t="shared" ref="L22:L35" si="11">20*LOG(K22)</f>
         <v>-1.3100309751286456</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ref="A23:A34" si="7">A22*2</f>
+        <f t="shared" ref="A23:A34" si="12">A22*2</f>
         <v>64</v>
       </c>
       <c r="B23">
         <v>49.7</v>
       </c>
       <c r="C23">
-        <f>B23/$W$1</f>
+        <f t="shared" si="8"/>
         <v>2.4850000000000003</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.9065278613870191</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I34" si="8">I22*2</f>
+        <f t="shared" ref="I23:I34" si="13">I22*2</f>
         <v>64</v>
       </c>
       <c r="J23">
         <v>49.7</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.4850000000000003</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.9065278613870191</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="B24">
         <v>119</v>
       </c>
       <c r="C24">
-        <f>B24/$W$1</f>
+        <f t="shared" si="8"/>
         <v>5.95</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.490339314570992</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
       <c r="J24">
         <v>119</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.95</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15.490339314570992</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="B25">
         <v>238</v>
       </c>
       <c r="C25">
-        <f>B25/$W$1</f>
+        <f t="shared" si="8"/>
         <v>11.9</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21.510939227850617</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="J25">
         <v>238</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.9</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.510939227850617</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="B26">
         <v>415</v>
       </c>
       <c r="C26">
-        <f>B26/$W$1</f>
+        <f t="shared" si="8"/>
         <v>20.75</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>26.340362020962228</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>512</v>
       </c>
       <c r="J26">
         <v>415</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>20.75</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.340362020962228</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="B27">
         <v>558</v>
       </c>
       <c r="C27">
-        <f>B27/$W$1</f>
+        <f t="shared" si="8"/>
         <v>27.9</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>28.912084065471952</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1024</v>
       </c>
       <c r="J27">
         <v>558</v>
       </c>
       <c r="K27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>27.9</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>28.912084065471952</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="B28">
         <v>623</v>
       </c>
       <c r="C28">
-        <f>B28/$W$1</f>
+        <f t="shared" si="8"/>
         <v>31.15</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>29.869161019903771</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2048</v>
       </c>
       <c r="J28">
         <v>623</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>31.15</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.869161019903771</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4096</v>
       </c>
       <c r="B29">
         <v>639</v>
       </c>
       <c r="C29">
-        <f>B29/$W$1</f>
+        <f t="shared" si="8"/>
         <v>31.95</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>30.089417249888378</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4096</v>
       </c>
       <c r="J29">
         <v>641</v>
       </c>
       <c r="K29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>32.049999999999997</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30.116560677096725</v>
       </c>
     </row>
@@ -4832,11 +4934,11 @@
         <v>641</v>
       </c>
       <c r="C30">
-        <f>B30/$W$1</f>
+        <f t="shared" si="8"/>
         <v>32.049999999999997</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>30.116560677096725</v>
       </c>
       <c r="I30">
@@ -4847,139 +4949,139 @@
         <v>639</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>31.95</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30.089417249888378</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16384</v>
       </c>
       <c r="B31">
         <v>638</v>
       </c>
       <c r="C31">
-        <f>B31/$W$1</f>
+        <f t="shared" si="8"/>
         <v>31.9</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>30.07581366114362</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>16384</v>
       </c>
       <c r="J31">
         <v>621</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>31.05</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.841232090251978</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>32768</v>
       </c>
       <c r="B32">
         <v>625</v>
       </c>
       <c r="C32">
-        <f>B32/$W$1</f>
+        <f t="shared" si="8"/>
         <v>31.25</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>29.897000433601878</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>32768</v>
       </c>
       <c r="J32">
         <v>559</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>27.95</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>28.927636244448841</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>65536</v>
       </c>
       <c r="B33">
         <v>612</v>
       </c>
       <c r="C33">
-        <f>B33/$W$1</f>
+        <f t="shared" si="8"/>
         <v>30.6</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>29.714428529631604</v>
       </c>
       <c r="I33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>65536</v>
       </c>
       <c r="J33">
         <v>459</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>22.95</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27.215653797465599</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>131072</v>
       </c>
       <c r="B34">
         <v>587</v>
       </c>
       <c r="C34">
-        <f>B34/$W$1</f>
+        <f t="shared" si="8"/>
         <v>29.35</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>29.352162111672662</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>131072</v>
       </c>
       <c r="J34">
         <v>353</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17.649999999999999</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24.934894194476826</v>
       </c>
     </row>
@@ -4991,11 +5093,11 @@
         <v>557</v>
       </c>
       <c r="C35">
-        <f>B35/$W$1</f>
+        <f t="shared" si="8"/>
         <v>27.85</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>28.896503990194951</v>
       </c>
       <c r="I35">
@@ -5005,11 +5107,11 @@
         <v>289</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14.45</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>23.197356941851336</v>
       </c>
     </row>
